--- a/tests/Gauges/tLists2_sum.xlsx
+++ b/tests/Gauges/tLists2_sum.xlsx
@@ -10,8 +10,8 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Orders">'Sheet1'!$A$12:$J$18</x:definedName>
-    <x:definedName name="Orders_tpl">'Sheet1'!$A$12:$J$13</x:definedName>
+    <x:definedName name="Orders">Sheet1!$A$12:$J$18</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -699,7 +699,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="3">
+  <x:dxfs count="1">
     <x:dxf>
       <x:font>
         <x:b val="0"/>
@@ -708,24 +708,6 @@
         <x:extend val="0"/>
         <x:color indexed="30"/>
       </x:font>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color indexed="30"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill/>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color indexed="30"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,45 +786,38 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>629177</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1895475" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="logo.png"/>
+        <xdr:cNvPr id="1" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="19050"/>
-          <a:ext cx="1895476" cy="610127"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1895475" cy="609600"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1602,7 +1577,7 @@
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:conditionalFormatting sqref="E12:G17">
-    <x:cfRule type="expression" dxfId="2" priority="1" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <x:formula>$G12="Visa"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/tests/Gauges/tLists2_sum.xlsx
+++ b/tests/Gauges/tLists2_sum.xlsx
@@ -10,8 +10,8 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Orders">'Sheet1'!$A$12:$J$18</x:definedName>
-    <x:definedName name="Orders_tpl">'Sheet1'!$A$12:$J$13</x:definedName>
+    <x:definedName name="Orders">Sheet1!$A$12:$J$18</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -291,7 +291,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="56">
+  <x:cellStyleXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -305,9 +305,6 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -323,39 +320,24 @@
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -368,9 +350,6 @@
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -381,81 +360,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -699,7 +603,7 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:dxfs count="3">
+  <x:dxfs count="1">
     <x:dxf>
       <x:font>
         <x:b val="0"/>
@@ -708,24 +612,6 @@
         <x:extend val="0"/>
         <x:color indexed="30"/>
       </x:font>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color indexed="30"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill/>
-      </x:fill>
-      <x:border/>
-    </x:dxf>
-    <x:dxf>
-      <x:font>
-        <x:color indexed="30"/>
-      </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid"/>
-      </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -804,45 +690,38 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>629177</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1895475" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2" descr="logo.png"/>
+        <xdr:cNvPr id="1" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="19050"/>
-          <a:ext cx="1895476" cy="610127"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1895475" cy="609600"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1217,9 +1096,10 @@
     <x:col min="8" max="8" width="9.164062" style="45" customWidth="1"/>
     <x:col min="9" max="9" width="10.832031" style="45" customWidth="1"/>
     <x:col min="10" max="10" width="11.5" style="45" customWidth="1"/>
+    <x:col min="11" max="11" width="9.140625" style="45" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
+    <x:row r="1" spans="1:11" customFormat="1" ht="51" customHeight="1">
       <x:c r="A1" s="45" t="s"/>
       <x:c r="B1" s="46" t="s">
         <x:v>0</x:v>
@@ -1233,7 +1113,7 @@
       <x:c r="I1" s="47" t="s"/>
       <x:c r="J1" s="47" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
+    <x:row r="2" spans="1:11" customFormat="1" ht="12.75" customHeight="1">
       <x:c r="A2" s="45" t="s"/>
       <x:c r="B2" s="48" t="s"/>
       <x:c r="C2" s="48" t="s"/>
@@ -1245,7 +1125,7 @@
       <x:c r="I2" s="48" t="s"/>
       <x:c r="J2" s="45" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
+    <x:row r="3" spans="1:11" customFormat="1" ht="18" customHeight="1">
       <x:c r="A3" s="49" t="s"/>
       <x:c r="B3" s="50" t="s">
         <x:v>1</x:v>
@@ -1261,7 +1141,7 @@
       <x:c r="I3" s="53" t="s"/>
       <x:c r="J3" s="54" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:11">
       <x:c r="A4" s="45" t="s"/>
       <x:c r="B4" s="55" t="s"/>
       <x:c r="C4" s="45" t="s"/>
@@ -1273,7 +1153,7 @@
       <x:c r="I4" s="45" t="s"/>
       <x:c r="J4" s="45" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:11">
       <x:c r="A5" s="45" t="s"/>
       <x:c r="B5" s="50" t="s">
         <x:v>3</x:v>
@@ -1286,7 +1166,7 @@
       <x:c r="H5" s="45" t="s"/>
       <x:c r="I5" s="45" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="6" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A6" s="45" t="s"/>
       <x:c r="B6" s="56" t="s">
         <x:f>"4-976 Sugarloaf Hwy"&amp;" "&amp;"Suite 103"</x:f>
@@ -1300,7 +1180,7 @@
       <x:c r="I6" s="59" t="s"/>
       <x:c r="J6" s="60" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="7" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A7" s="45" t="s"/>
       <x:c r="B7" s="61" t="s"/>
       <x:c r="C7" s="62" t="s"/>
@@ -1312,7 +1192,7 @@
       <x:c r="I7" s="45" t="s"/>
       <x:c r="J7" s="45" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:10">
+    <x:row r="8" spans="1:11">
       <x:c r="A8" s="45" t="s"/>
       <x:c r="B8" s="50" t="s">
         <x:v>4</x:v>
@@ -1331,7 +1211,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="9" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A9" s="45" t="s"/>
       <x:c r="B9" s="63" t="s">
         <x:v>8</x:v>
@@ -1351,7 +1231,7 @@
       </x:c>
       <x:c r="J9" s="64" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="10" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A10" s="45" t="s"/>
       <x:c r="B10" s="65" t="s"/>
       <x:c r="C10" s="65" t="s"/>
@@ -1363,7 +1243,7 @@
       <x:c r="I10" s="65" t="s"/>
       <x:c r="J10" s="65" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
+    <x:row r="11" spans="1:11" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="45" t="s"/>
       <x:c r="B11" s="66" t="s">
         <x:v>12</x:v>
@@ -1393,7 +1273,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:10">
+    <x:row r="12" spans="1:11">
       <x:c r="A12" s="45" t="s"/>
       <x:c r="B12" s="68" t="n">
         <x:v>1023</x:v>
@@ -1419,7 +1299,7 @@
         <x:v>4674</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="13" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A13" s="45" t="s"/>
       <x:c r="B13" s="68" t="n">
         <x:v>1076</x:v>
@@ -1445,7 +1325,7 @@
         <x:v>17781</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="14" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A14" s="45" t="s"/>
       <x:c r="B14" s="68" t="n">
         <x:v>1123</x:v>
@@ -1471,7 +1351,7 @@
         <x:v>13945</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:10">
+    <x:row r="15" spans="1:11">
       <x:c r="A15" s="45" t="s"/>
       <x:c r="B15" s="68" t="n">
         <x:v>1169</x:v>
@@ -1497,7 +1377,7 @@
         <x:v>9471.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="16" spans="1:11" customFormat="1" ht="12" customHeight="1">
       <x:c r="A16" s="45" t="s"/>
       <x:c r="B16" s="68" t="n">
         <x:v>1176</x:v>
@@ -1523,7 +1403,7 @@
         <x:v>4178.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:10">
+    <x:row r="17" spans="1:11">
       <x:c r="A17" s="45" t="s"/>
       <x:c r="B17" s="68" t="n">
         <x:v>1269</x:v>
@@ -1549,7 +1429,7 @@
         <x:v>1400</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:10">
+    <x:row r="18" spans="1:11">
       <x:c r="A18" s="45" t="s"/>
       <x:c r="B18" s="76" t="s"/>
       <x:c r="C18" s="76" t="s"/>
@@ -1565,7 +1445,7 @@
         <x:f>Subtotal(9,J12:J17)</x:f>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:10">
+    <x:row r="19" spans="1:11">
       <x:c r="A19" s="45" t="s"/>
       <x:c r="B19" s="65" t="s"/>
       <x:c r="C19" s="65" t="s"/>
@@ -1577,7 +1457,7 @@
       <x:c r="I19" s="75" t="s"/>
       <x:c r="J19" s="74" t="s"/>
     </x:row>
-    <x:row r="20" spans="1:10">
+    <x:row r="20" spans="1:11">
       <x:c r="A20" s="45" t="s"/>
       <x:c r="B20" s="50" t="s">
         <x:v>25</x:v>
@@ -1586,7 +1466,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:10">
+    <x:row r="21" spans="1:11">
       <x:c r="A21" s="45" t="s"/>
       <x:c r="B21" s="73" t="s">
         <x:v>27</x:v>
@@ -1602,7 +1482,7 @@
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:conditionalFormatting sqref="E12:G17">
-    <x:cfRule type="expression" dxfId="2" priority="1" operator="equal">
+    <x:cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <x:formula>$G12="Visa"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/tests/Gauges/tLists2_sum.xlsx
+++ b/tests/Gauges/tLists2_sum.xlsx
@@ -10,7 +10,7 @@
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="Orders">Sheet1!$A$12:$J$18</x:definedName>
+    <x:definedName name="Orders">Sheet1!$A$12:$J$21</x:definedName>
     <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>Totals in a column</x:t>
   </x:si>
@@ -26,7 +26,7 @@
     <x:t>Customer</x:t>
   </x:si>
   <x:si>
-    <x:t>Kauai Dive Shoppe</x:t>
+    <x:t>Tom Sawyer Diving Centre</x:t>
   </x:si>
   <x:si>
     <x:t>Address</x:t>
@@ -44,16 +44,13 @@
     <x:t>Zip</x:t>
   </x:si>
   <x:si>
-    <x:t>Kapaa Kauai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94766-1234</x:t>
+    <x:t>Christiansted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Croix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>US Virgin Islands</x:t>
   </x:si>
   <x:si>
     <x:t>Order No</x:t>
@@ -87,12 +84,18 @@
 paid</x:t>
   </x:si>
   <x:si>
-    <x:t>Check</x:t>
-  </x:si>
-  <x:si>
     <x:t>Visa</x:t>
   </x:si>
   <x:si>
+    <x:t>4-976 Sugarloaf Hwy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Suite 103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cash</x:t>
+  </x:si>
+  <x:si>
     <x:t>Credit</x:t>
   </x:si>
   <x:si>
@@ -105,10 +108,10 @@
     <x:t>Fax</x:t>
   </x:si>
   <x:si>
-    <x:t>808-555-0269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>808-555-0278</x:t>
+    <x:t>504-798-3022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504-798-7772</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1096,10 +1099,9 @@
     <x:col min="8" max="8" width="9.164062" style="45" customWidth="1"/>
     <x:col min="9" max="9" width="10.832031" style="45" customWidth="1"/>
     <x:col min="10" max="10" width="11.5" style="45" customWidth="1"/>
-    <x:col min="11" max="11" width="9.140625" style="45" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:11" customFormat="1" ht="51" customHeight="1">
+    <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <x:c r="A1" s="45" t="s"/>
       <x:c r="B1" s="46" t="s">
         <x:v>0</x:v>
@@ -1113,7 +1115,7 @@
       <x:c r="I1" s="47" t="s"/>
       <x:c r="J1" s="47" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:11" customFormat="1" ht="12.75" customHeight="1">
+    <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
       <x:c r="A2" s="45" t="s"/>
       <x:c r="B2" s="48" t="s"/>
       <x:c r="C2" s="48" t="s"/>
@@ -1125,7 +1127,7 @@
       <x:c r="I2" s="48" t="s"/>
       <x:c r="J2" s="45" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:11" customFormat="1" ht="18" customHeight="1">
+    <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
       <x:c r="A3" s="49" t="s"/>
       <x:c r="B3" s="50" t="s">
         <x:v>1</x:v>
@@ -1141,7 +1143,7 @@
       <x:c r="I3" s="53" t="s"/>
       <x:c r="J3" s="54" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:10">
       <x:c r="A4" s="45" t="s"/>
       <x:c r="B4" s="55" t="s"/>
       <x:c r="C4" s="45" t="s"/>
@@ -1153,7 +1155,7 @@
       <x:c r="I4" s="45" t="s"/>
       <x:c r="J4" s="45" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:10">
       <x:c r="A5" s="45" t="s"/>
       <x:c r="B5" s="50" t="s">
         <x:v>3</x:v>
@@ -1166,10 +1168,10 @@
       <x:c r="H5" s="45" t="s"/>
       <x:c r="I5" s="45" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:11" customFormat="1" ht="12" customHeight="1">
+    <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A6" s="45" t="s"/>
       <x:c r="B6" s="56" t="s">
-        <x:f>"4-976 Sugarloaf Hwy"&amp;" "&amp;"Suite 103"</x:f>
+        <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
       <x:c r="C6" s="57" t="s"/>
       <x:c r="D6" s="57" t="s"/>
@@ -1180,7 +1182,7 @@
       <x:c r="I6" s="59" t="s"/>
       <x:c r="J6" s="60" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:11" customFormat="1" ht="12" customHeight="1">
+    <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A7" s="45" t="s"/>
       <x:c r="B7" s="61" t="s"/>
       <x:c r="C7" s="62" t="s"/>
@@ -1192,7 +1194,7 @@
       <x:c r="I7" s="45" t="s"/>
       <x:c r="J7" s="45" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:10">
       <x:c r="A8" s="45" t="s"/>
       <x:c r="B8" s="50" t="s">
         <x:v>4</x:v>
@@ -1211,7 +1213,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11" customFormat="1" ht="12" customHeight="1">
+    <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A9" s="45" t="s"/>
       <x:c r="B9" s="63" t="s">
         <x:v>8</x:v>
@@ -1226,12 +1228,12 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H9" s="64" t="s"/>
-      <x:c r="I9" s="63" t="s">
-        <x:v>11</x:v>
+      <x:c r="I9" s="63" t="n">
+        <x:v>820</x:v>
       </x:c>
       <x:c r="J9" s="64" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:11" customFormat="1" ht="12" customHeight="1">
+    <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A10" s="45" t="s"/>
       <x:c r="B10" s="65" t="s"/>
       <x:c r="C10" s="65" t="s"/>
@@ -1243,245 +1245,328 @@
       <x:c r="I10" s="65" t="s"/>
       <x:c r="J10" s="65" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:11" customFormat="1" ht="22.5" customHeight="1">
+    <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="45" t="s"/>
       <x:c r="B11" s="66" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C11" s="66" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C11" s="66" t="s">
+      <x:c r="D11" s="66" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D11" s="66" t="s">
+      <x:c r="E11" s="66" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E11" s="66" t="s">
+      <x:c r="F11" s="66" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F11" s="66" t="s">
+      <x:c r="G11" s="67" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G11" s="67" t="s">
+      <x:c r="H11" s="67" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H11" s="67" t="s">
+      <x:c r="I11" s="67" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="I11" s="67" t="s">
+      <x:c r="J11" s="67" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="J11" s="67" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:11">
+    </x:row>
+    <x:row r="12" spans="1:10">
       <x:c r="A12" s="45" t="s"/>
       <x:c r="B12" s="68" t="n">
-        <x:v>1023</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="C12" s="69">
-        <x:v>32325</x:v>
+        <x:v>32253</x:v>
       </x:c>
       <x:c r="D12" s="69">
-        <x:v>32326</x:v>
+        <x:v>32163</x:v>
       </x:c>
       <x:c r="E12" s="70" t="s"/>
       <x:c r="F12" s="70" t="s"/>
       <x:c r="G12" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H12" s="71" t="n">
-        <x:v>4674</x:v>
+        <x:v>4807</x:v>
       </x:c>
       <x:c r="I12" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="71" t="n">
-        <x:v>4674</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:11" customFormat="1" ht="12" customHeight="1">
+        <x:v>4807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A13" s="45" t="s"/>
       <x:c r="B13" s="68" t="n">
-        <x:v>1076</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="C13" s="69">
-        <x:v>34684</x:v>
+        <x:v>32563</x:v>
       </x:c>
       <x:c r="D13" s="69">
-        <x:v>32624</x:v>
-      </x:c>
-      <x:c r="E13" s="70" t="s"/>
-      <x:c r="F13" s="70" t="s"/>
+        <x:v>32564</x:v>
+      </x:c>
+      <x:c r="E13" s="70" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F13" s="70" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="G13" s="70" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H13" s="71" t="n">
-        <x:v>17781</x:v>
+        <x:v>2150</x:v>
       </x:c>
       <x:c r="I13" s="71" t="n">
-        <x:v>0</x:v>
+        <x:v>8.5</x:v>
       </x:c>
       <x:c r="J13" s="71" t="n">
-        <x:v>17781</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:11" customFormat="1" ht="12" customHeight="1">
+        <x:v>2150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A14" s="45" t="s"/>
       <x:c r="B14" s="68" t="n">
-        <x:v>1123</x:v>
+        <x:v>1072</x:v>
       </x:c>
       <x:c r="C14" s="69">
-        <x:v>34205</x:v>
+        <x:v>32609</x:v>
       </x:c>
       <x:c r="D14" s="69">
-        <x:v>34205</x:v>
+        <x:v>32610</x:v>
       </x:c>
       <x:c r="E14" s="70" t="s"/>
       <x:c r="F14" s="70" t="s"/>
       <x:c r="G14" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H14" s="71" t="n">
-        <x:v>13945</x:v>
+        <x:v>3596</x:v>
       </x:c>
       <x:c r="I14" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J14" s="71" t="n">
-        <x:v>13945</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:11">
+        <x:v>3596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
       <x:c r="A15" s="45" t="s"/>
       <x:c r="B15" s="68" t="n">
-        <x:v>1169</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="C15" s="69">
-        <x:v>34521</x:v>
+        <x:v>32633</x:v>
       </x:c>
       <x:c r="D15" s="69">
-        <x:v>34521</x:v>
+        <x:v>32634</x:v>
       </x:c>
       <x:c r="E15" s="70" t="s"/>
       <x:c r="F15" s="70" t="s"/>
       <x:c r="G15" s="70" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H15" s="71" t="n">
-        <x:v>9471.95</x:v>
+        <x:v>9634</x:v>
       </x:c>
       <x:c r="I15" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J15" s="71" t="n">
-        <x:v>9471.95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:11" customFormat="1" ht="12" customHeight="1">
+        <x:v>9634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A16" s="45" t="s"/>
       <x:c r="B16" s="68" t="n">
-        <x:v>1176</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="C16" s="69">
-        <x:v>34541</x:v>
+        <x:v>33806</x:v>
       </x:c>
       <x:c r="D16" s="69">
-        <x:v>34541</x:v>
+        <x:v>33806</x:v>
       </x:c>
       <x:c r="E16" s="70" t="s"/>
       <x:c r="F16" s="70" t="s"/>
       <x:c r="G16" s="70" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H16" s="71" t="n">
-        <x:v>4178.85</x:v>
+        <x:v>31219.95</x:v>
       </x:c>
       <x:c r="I16" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J16" s="71" t="n">
-        <x:v>4178.85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:11">
+        <x:v>31219.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
       <x:c r="A17" s="45" t="s"/>
       <x:c r="B17" s="68" t="n">
-        <x:v>1269</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="C17" s="69">
-        <x:v>34684</x:v>
+        <x:v>34552</x:v>
       </x:c>
       <x:c r="D17" s="69">
-        <x:v>34684</x:v>
+        <x:v>34552</x:v>
       </x:c>
       <x:c r="E17" s="70" t="s"/>
       <x:c r="F17" s="70" t="s"/>
       <x:c r="G17" s="70" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H17" s="71" t="n">
-        <x:v>1400</x:v>
+        <x:v>3640</x:v>
       </x:c>
       <x:c r="I17" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J17" s="71" t="n">
-        <x:v>1400</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:11">
+        <x:v>3640</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
       <x:c r="A18" s="45" t="s"/>
-      <x:c r="B18" s="76" t="s"/>
-      <x:c r="C18" s="76" t="s"/>
-      <x:c r="D18" s="76" t="s"/>
-      <x:c r="E18" s="76" t="s"/>
-      <x:c r="F18" s="76" t="s"/>
-      <x:c r="G18" s="76" t="s"/>
-      <x:c r="H18" s="76" t="s"/>
-      <x:c r="I18" s="76" t="s">
+      <x:c r="B18" s="68" t="n">
+        <x:v>1266</x:v>
+      </x:c>
+      <x:c r="C18" s="69">
+        <x:v>34683</x:v>
+      </x:c>
+      <x:c r="D18" s="69">
+        <x:v>34683</x:v>
+      </x:c>
+      <x:c r="E18" s="70" t="s"/>
+      <x:c r="F18" s="70" t="s"/>
+      <x:c r="G18" s="70" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H18" s="71" t="n">
+        <x:v>6935</x:v>
+      </x:c>
+      <x:c r="I18" s="71" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J18" s="71" t="n">
+        <x:v>6935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="45" t="s"/>
+      <x:c r="B19" s="68" t="n">
+        <x:v>1280</x:v>
+      </x:c>
+      <x:c r="C19" s="69">
+        <x:v>34694</x:v>
+      </x:c>
+      <x:c r="D19" s="69">
+        <x:v>34694</x:v>
+      </x:c>
+      <x:c r="E19" s="70" t="s"/>
+      <x:c r="F19" s="70" t="s"/>
+      <x:c r="G19" s="70" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="J18" s="74">
-        <x:f>Subtotal(9,J12:J17)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:11">
-      <x:c r="A19" s="45" t="s"/>
-      <x:c r="B19" s="65" t="s"/>
-      <x:c r="C19" s="65" t="s"/>
-      <x:c r="D19" s="65" t="s"/>
-      <x:c r="E19" s="65" t="s"/>
-      <x:c r="F19" s="65" t="s"/>
-      <x:c r="G19" s="65" t="s"/>
-      <x:c r="H19" s="65" t="s"/>
-      <x:c r="I19" s="75" t="s"/>
-      <x:c r="J19" s="74" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:11">
+      <x:c r="H19" s="71" t="n">
+        <x:v>4317.75</x:v>
+      </x:c>
+      <x:c r="I19" s="71" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="71" t="n">
+        <x:v>4317.75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
       <x:c r="A20" s="45" t="s"/>
-      <x:c r="B20" s="50" t="s">
+      <x:c r="B20" s="68" t="n">
+        <x:v>1305</x:v>
+      </x:c>
+      <x:c r="C20" s="69">
+        <x:v>34719</x:v>
+      </x:c>
+      <x:c r="D20" s="69">
+        <x:v>34719</x:v>
+      </x:c>
+      <x:c r="E20" s="70" t="s"/>
+      <x:c r="F20" s="70" t="s"/>
+      <x:c r="G20" s="70" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H20" s="71" t="n">
+        <x:v>3065</x:v>
+      </x:c>
+      <x:c r="I20" s="71" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="71" t="n">
+        <x:v>3065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="45" t="s"/>
+      <x:c r="B21" s="76" t="s"/>
+      <x:c r="C21" s="76" t="s"/>
+      <x:c r="D21" s="76" t="s"/>
+      <x:c r="E21" s="76" t="s"/>
+      <x:c r="F21" s="76" t="s"/>
+      <x:c r="G21" s="76" t="s"/>
+      <x:c r="H21" s="76" t="s"/>
+      <x:c r="I21" s="76" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E20" s="50" t="s">
+      <x:c r="J21" s="74">
+        <x:f>Subtotal(9,J12:J20)</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="45" t="s"/>
+      <x:c r="B22" s="65" t="s"/>
+      <x:c r="C22" s="65" t="s"/>
+      <x:c r="D22" s="65" t="s"/>
+      <x:c r="E22" s="65" t="s"/>
+      <x:c r="F22" s="65" t="s"/>
+      <x:c r="G22" s="65" t="s"/>
+      <x:c r="H22" s="65" t="s"/>
+      <x:c r="I22" s="75" t="s"/>
+      <x:c r="J22" s="74" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="45" t="s"/>
+      <x:c r="B23" s="50" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:11">
-      <x:c r="A21" s="45" t="s"/>
-      <x:c r="B21" s="73" t="s">
+      <x:c r="E23" s="50" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C21" s="57" t="s"/>
-      <x:c r="D21" s="57" t="s"/>
-      <x:c r="E21" s="73" t="s">
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="45" t="s"/>
+      <x:c r="B24" s="73" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F21" s="72" t="s"/>
-      <x:c r="G21" s="45" t="s"/>
+      <x:c r="C24" s="57" t="s"/>
+      <x:c r="D24" s="57" t="s"/>
+      <x:c r="E24" s="73" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F24" s="72" t="s"/>
+      <x:c r="G24" s="45" t="s"/>
+      <x:c r="J24" s="45" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
-  <x:conditionalFormatting sqref="E12:G17">
+  <x:conditionalFormatting sqref="E12:G20">
     <x:cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <x:formula>$G12="Visa"</x:formula>
     </x:cfRule>

--- a/tests/Gauges/tLists2_sum.xlsx
+++ b/tests/Gauges/tLists2_sum.xlsx
@@ -11,14 +11,14 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Orders">Sheet1!$A$12:$J$21</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$21</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>Totals in a column</x:t>
   </x:si>
@@ -51,6 +51,9 @@
   </x:si>
   <x:si>
     <x:t>US Virgin Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00820</x:t>
   </x:si>
   <x:si>
     <x:t>Order No</x:t>
@@ -299,6 +302,15 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -326,18 +338,12 @@
     <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -351,9 +357,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -478,6 +481,18 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -523,10 +538,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -580,14 +591,6 @@
     </x:xf>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1084,7 +1087,8 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection pane="bottomLeft"/>
+      <x:selection activeCell="G13" sqref="G13 G21"/>
+      <x:selection pane="bottomLeft" activeCell="G13" sqref="G13 G21"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>
@@ -1103,49 +1107,49 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
       <x:c r="A1" s="45" t="s"/>
-      <x:c r="B1" s="46" t="s">
+      <x:c r="B1" s="49" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="47" t="s"/>
-      <x:c r="D1" s="47" t="s"/>
-      <x:c r="E1" s="47" t="s"/>
-      <x:c r="F1" s="47" t="s"/>
-      <x:c r="G1" s="47" t="s"/>
-      <x:c r="H1" s="47" t="s"/>
-      <x:c r="I1" s="47" t="s"/>
-      <x:c r="J1" s="47" t="s"/>
+      <x:c r="C1" s="50" t="s"/>
+      <x:c r="D1" s="50" t="s"/>
+      <x:c r="E1" s="50" t="s"/>
+      <x:c r="F1" s="50" t="s"/>
+      <x:c r="G1" s="50" t="s"/>
+      <x:c r="H1" s="50" t="s"/>
+      <x:c r="I1" s="50" t="s"/>
+      <x:c r="J1" s="50" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
       <x:c r="A2" s="45" t="s"/>
-      <x:c r="B2" s="48" t="s"/>
-      <x:c r="C2" s="48" t="s"/>
-      <x:c r="D2" s="48" t="s"/>
-      <x:c r="E2" s="48" t="s"/>
-      <x:c r="F2" s="48" t="s"/>
-      <x:c r="G2" s="48" t="s"/>
-      <x:c r="H2" s="48" t="s"/>
-      <x:c r="I2" s="48" t="s"/>
+      <x:c r="B2" s="51" t="s"/>
+      <x:c r="C2" s="51" t="s"/>
+      <x:c r="D2" s="51" t="s"/>
+      <x:c r="E2" s="51" t="s"/>
+      <x:c r="F2" s="51" t="s"/>
+      <x:c r="G2" s="51" t="s"/>
+      <x:c r="H2" s="51" t="s"/>
+      <x:c r="I2" s="51" t="s"/>
       <x:c r="J2" s="45" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="49" t="s"/>
-      <x:c r="B3" s="50" t="s">
+      <x:c r="A3" s="52" t="s"/>
+      <x:c r="B3" s="53" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="51" t="s">
+      <x:c r="C3" s="54" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="52" t="s"/>
-      <x:c r="E3" s="52" t="s"/>
-      <x:c r="F3" s="52" t="s"/>
-      <x:c r="G3" s="53" t="s"/>
-      <x:c r="H3" s="53" t="s"/>
-      <x:c r="I3" s="53" t="s"/>
-      <x:c r="J3" s="54" t="s"/>
+      <x:c r="D3" s="55" t="s"/>
+      <x:c r="E3" s="55" t="s"/>
+      <x:c r="F3" s="55" t="s"/>
+      <x:c r="G3" s="56" t="s"/>
+      <x:c r="H3" s="56" t="s"/>
+      <x:c r="I3" s="56" t="s"/>
+      <x:c r="J3" s="57" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="45" t="s"/>
-      <x:c r="B4" s="55" t="s"/>
+      <x:c r="B4" s="58" t="s"/>
       <x:c r="C4" s="45" t="s"/>
       <x:c r="D4" s="45" t="s"/>
       <x:c r="E4" s="45" t="s"/>
@@ -1157,7 +1161,7 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="45" t="s"/>
-      <x:c r="B5" s="50" t="s">
+      <x:c r="B5" s="53" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="45" t="s"/>
@@ -1170,346 +1174,346 @@
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A6" s="45" t="s"/>
-      <x:c r="B6" s="56" t="s">
+      <x:c r="B6" s="59" t="s">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
-      <x:c r="C6" s="57" t="s"/>
-      <x:c r="D6" s="57" t="s"/>
-      <x:c r="E6" s="57" t="s"/>
-      <x:c r="F6" s="57" t="s"/>
-      <x:c r="G6" s="57" t="s"/>
-      <x:c r="H6" s="58" t="s"/>
-      <x:c r="I6" s="59" t="s"/>
-      <x:c r="J6" s="60" t="s"/>
+      <x:c r="C6" s="48" t="s"/>
+      <x:c r="D6" s="48" t="s"/>
+      <x:c r="E6" s="48" t="s"/>
+      <x:c r="F6" s="48" t="s"/>
+      <x:c r="G6" s="48" t="s"/>
+      <x:c r="H6" s="60" t="s"/>
+      <x:c r="I6" s="61" t="s"/>
+      <x:c r="J6" s="62" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A7" s="45" t="s"/>
-      <x:c r="B7" s="61" t="s"/>
-      <x:c r="C7" s="62" t="s"/>
-      <x:c r="D7" s="62" t="s"/>
-      <x:c r="E7" s="62" t="s"/>
-      <x:c r="F7" s="62" t="s"/>
-      <x:c r="G7" s="62" t="s"/>
-      <x:c r="H7" s="61" t="s"/>
+      <x:c r="B7" s="63" t="s"/>
+      <x:c r="C7" s="64" t="s"/>
+      <x:c r="D7" s="64" t="s"/>
+      <x:c r="E7" s="64" t="s"/>
+      <x:c r="F7" s="64" t="s"/>
+      <x:c r="G7" s="64" t="s"/>
+      <x:c r="H7" s="63" t="s"/>
       <x:c r="I7" s="45" t="s"/>
       <x:c r="J7" s="45" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="45" t="s"/>
-      <x:c r="B8" s="50" t="s">
+      <x:c r="B8" s="53" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C8" s="45" t="s"/>
       <x:c r="D8" s="45" t="s"/>
-      <x:c r="E8" s="50" t="s">
+      <x:c r="E8" s="53" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="F8" s="45" t="s"/>
-      <x:c r="G8" s="50" t="s">
+      <x:c r="G8" s="53" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H8" s="45" t="s"/>
-      <x:c r="I8" s="50" t="s">
+      <x:c r="I8" s="53" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A9" s="45" t="s"/>
-      <x:c r="B9" s="63" t="s">
+      <x:c r="B9" s="65" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="57" t="s"/>
-      <x:c r="D9" s="57" t="s"/>
-      <x:c r="E9" s="63" t="s">
+      <x:c r="C9" s="48" t="s"/>
+      <x:c r="D9" s="48" t="s"/>
+      <x:c r="E9" s="65" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="64" t="s"/>
-      <x:c r="G9" s="63" t="s">
+      <x:c r="F9" s="66" t="s"/>
+      <x:c r="G9" s="65" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H9" s="64" t="s"/>
-      <x:c r="I9" s="63" t="n">
-        <x:v>820</x:v>
-      </x:c>
-      <x:c r="J9" s="64" t="s"/>
+      <x:c r="H9" s="66" t="s"/>
+      <x:c r="I9" s="65" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J9" s="66" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A10" s="45" t="s"/>
-      <x:c r="B10" s="65" t="s"/>
-      <x:c r="C10" s="65" t="s"/>
-      <x:c r="D10" s="65" t="s"/>
-      <x:c r="E10" s="65" t="s"/>
-      <x:c r="F10" s="65" t="s"/>
-      <x:c r="G10" s="65" t="s"/>
-      <x:c r="H10" s="65" t="s"/>
-      <x:c r="I10" s="65" t="s"/>
-      <x:c r="J10" s="65" t="s"/>
+      <x:c r="B10" s="67" t="s"/>
+      <x:c r="C10" s="67" t="s"/>
+      <x:c r="D10" s="67" t="s"/>
+      <x:c r="E10" s="67" t="s"/>
+      <x:c r="F10" s="67" t="s"/>
+      <x:c r="G10" s="67" t="s"/>
+      <x:c r="H10" s="67" t="s"/>
+      <x:c r="I10" s="67" t="s"/>
+      <x:c r="J10" s="67" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="45" t="s"/>
-      <x:c r="B11" s="66" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="66" t="s">
+      <x:c r="B11" s="68" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D11" s="66" t="s">
+      <x:c r="C11" s="68" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E11" s="66" t="s">
+      <x:c r="D11" s="68" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F11" s="66" t="s">
+      <x:c r="E11" s="68" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G11" s="67" t="s">
+      <x:c r="F11" s="68" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H11" s="67" t="s">
+      <x:c r="G11" s="69" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I11" s="67" t="s">
+      <x:c r="H11" s="69" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J11" s="67" t="s">
+      <x:c r="I11" s="69" t="s">
         <x:v>19</x:v>
+      </x:c>
+      <x:c r="J11" s="69" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="45" t="s"/>
-      <x:c r="B12" s="68" t="n">
+      <x:c r="B12" s="70" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C12" s="69">
+      <x:c r="C12" s="71">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D12" s="69">
+      <x:c r="D12" s="71">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="E12" s="70" t="s"/>
-      <x:c r="F12" s="70" t="s"/>
-      <x:c r="G12" s="70" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H12" s="71" t="n">
+      <x:c r="E12" s="72" t="s"/>
+      <x:c r="F12" s="72" t="s"/>
+      <x:c r="G12" s="72" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H12" s="73" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="I12" s="71" t="n">
+      <x:c r="I12" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="71" t="n">
+      <x:c r="J12" s="73" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A13" s="45" t="s"/>
-      <x:c r="B13" s="68" t="n">
+      <x:c r="B13" s="70" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C13" s="69">
+      <x:c r="C13" s="71">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D13" s="69">
+      <x:c r="D13" s="71">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="E13" s="70" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F13" s="70" t="s">
+      <x:c r="E13" s="72" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G13" s="70" t="s">
+      <x:c r="F13" s="72" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="H13" s="71" t="n">
+      <x:c r="G13" s="72" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H13" s="73" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="I13" s="71" t="n">
+      <x:c r="I13" s="73" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="J13" s="71" t="n">
+      <x:c r="J13" s="73" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A14" s="45" t="s"/>
-      <x:c r="B14" s="68" t="n">
+      <x:c r="B14" s="70" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C14" s="69">
+      <x:c r="C14" s="71">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D14" s="69">
+      <x:c r="D14" s="71">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="E14" s="70" t="s"/>
-      <x:c r="F14" s="70" t="s"/>
-      <x:c r="G14" s="70" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H14" s="71" t="n">
+      <x:c r="E14" s="72" t="s"/>
+      <x:c r="F14" s="72" t="s"/>
+      <x:c r="G14" s="72" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H14" s="73" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="I14" s="71" t="n">
+      <x:c r="I14" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J14" s="71" t="n">
+      <x:c r="J14" s="73" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="45" t="s"/>
-      <x:c r="B15" s="68" t="n">
+      <x:c r="B15" s="70" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C15" s="69">
+      <x:c r="C15" s="71">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D15" s="69">
+      <x:c r="D15" s="71">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="E15" s="70" t="s"/>
-      <x:c r="F15" s="70" t="s"/>
-      <x:c r="G15" s="70" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H15" s="71" t="n">
+      <x:c r="E15" s="72" t="s"/>
+      <x:c r="F15" s="72" t="s"/>
+      <x:c r="G15" s="72" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H15" s="73" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="I15" s="71" t="n">
+      <x:c r="I15" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="71" t="n">
+      <x:c r="J15" s="73" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A16" s="45" t="s"/>
-      <x:c r="B16" s="68" t="n">
+      <x:c r="B16" s="70" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C16" s="69">
+      <x:c r="C16" s="71">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D16" s="69">
+      <x:c r="D16" s="71">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E16" s="70" t="s"/>
-      <x:c r="F16" s="70" t="s"/>
-      <x:c r="G16" s="70" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H16" s="71" t="n">
+      <x:c r="E16" s="72" t="s"/>
+      <x:c r="F16" s="72" t="s"/>
+      <x:c r="G16" s="72" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H16" s="73" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="I16" s="71" t="n">
+      <x:c r="I16" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J16" s="71" t="n">
+      <x:c r="J16" s="73" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="45" t="s"/>
-      <x:c r="B17" s="68" t="n">
+      <x:c r="B17" s="70" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C17" s="69">
+      <x:c r="C17" s="71">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D17" s="69">
+      <x:c r="D17" s="71">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="E17" s="70" t="s"/>
-      <x:c r="F17" s="70" t="s"/>
-      <x:c r="G17" s="70" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H17" s="71" t="n">
+      <x:c r="E17" s="72" t="s"/>
+      <x:c r="F17" s="72" t="s"/>
+      <x:c r="G17" s="72" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H17" s="73" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="I17" s="71" t="n">
+      <x:c r="I17" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J17" s="71" t="n">
+      <x:c r="J17" s="73" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="45" t="s"/>
-      <x:c r="B18" s="68" t="n">
+      <x:c r="B18" s="70" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C18" s="69">
+      <x:c r="C18" s="71">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D18" s="69">
+      <x:c r="D18" s="71">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="E18" s="70" t="s"/>
-      <x:c r="F18" s="70" t="s"/>
-      <x:c r="G18" s="70" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H18" s="71" t="n">
+      <x:c r="E18" s="72" t="s"/>
+      <x:c r="F18" s="72" t="s"/>
+      <x:c r="G18" s="72" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H18" s="73" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="I18" s="71" t="n">
+      <x:c r="I18" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J18" s="71" t="n">
+      <x:c r="J18" s="73" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="45" t="s"/>
-      <x:c r="B19" s="68" t="n">
+      <x:c r="B19" s="70" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C19" s="69">
+      <x:c r="C19" s="71">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D19" s="69">
+      <x:c r="D19" s="71">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E19" s="70" t="s"/>
-      <x:c r="F19" s="70" t="s"/>
-      <x:c r="G19" s="70" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H19" s="71" t="n">
+      <x:c r="E19" s="72" t="s"/>
+      <x:c r="F19" s="72" t="s"/>
+      <x:c r="G19" s="72" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H19" s="73" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="I19" s="71" t="n">
+      <x:c r="I19" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J19" s="71" t="n">
+      <x:c r="J19" s="73" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
       <x:c r="A20" s="45" t="s"/>
-      <x:c r="B20" s="68" t="n">
+      <x:c r="B20" s="70" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C20" s="69">
+      <x:c r="C20" s="71">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D20" s="69">
+      <x:c r="D20" s="71">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E20" s="70" t="s"/>
-      <x:c r="F20" s="70" t="s"/>
-      <x:c r="G20" s="70" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H20" s="71" t="n">
+      <x:c r="E20" s="72" t="s"/>
+      <x:c r="F20" s="72" t="s"/>
+      <x:c r="G20" s="72" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H20" s="73" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="I20" s="71" t="n">
+      <x:c r="I20" s="73" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J20" s="71" t="n">
+      <x:c r="J20" s="73" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
@@ -1523,7 +1527,7 @@
       <x:c r="G21" s="76" t="s"/>
       <x:c r="H21" s="76" t="s"/>
       <x:c r="I21" s="76" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J21" s="74">
         <x:f>Subtotal(9,J12:J20)</x:f>
@@ -1531,36 +1535,36 @@
     </x:row>
     <x:row r="22" spans="1:10">
       <x:c r="A22" s="45" t="s"/>
-      <x:c r="B22" s="65" t="s"/>
-      <x:c r="C22" s="65" t="s"/>
-      <x:c r="D22" s="65" t="s"/>
-      <x:c r="E22" s="65" t="s"/>
-      <x:c r="F22" s="65" t="s"/>
-      <x:c r="G22" s="65" t="s"/>
-      <x:c r="H22" s="65" t="s"/>
+      <x:c r="B22" s="67" t="s"/>
+      <x:c r="C22" s="67" t="s"/>
+      <x:c r="D22" s="67" t="s"/>
+      <x:c r="E22" s="67" t="s"/>
+      <x:c r="F22" s="67" t="s"/>
+      <x:c r="G22" s="67" t="s"/>
+      <x:c r="H22" s="67" t="s"/>
       <x:c r="I22" s="75" t="s"/>
       <x:c r="J22" s="74" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="45" t="s"/>
-      <x:c r="B23" s="50" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E23" s="50" t="s">
+      <x:c r="B23" s="53" t="s">
         <x:v>27</x:v>
+      </x:c>
+      <x:c r="E23" s="53" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="45" t="s"/>
-      <x:c r="B24" s="73" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C24" s="57" t="s"/>
-      <x:c r="D24" s="57" t="s"/>
-      <x:c r="E24" s="73" t="s">
+      <x:c r="B24" s="47" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F24" s="72" t="s"/>
+      <x:c r="C24" s="48" t="s"/>
+      <x:c r="D24" s="48" t="s"/>
+      <x:c r="E24" s="47" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F24" s="46" t="s"/>
       <x:c r="G24" s="45" t="s"/>
       <x:c r="J24" s="45" t="s"/>
     </x:row>
